--- a/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>LVO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E8" s="3">
         <v>21900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E9" s="3">
         <v>16100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7700</v>
       </c>
       <c r="J9" s="3">
         <v>7700</v>
       </c>
       <c r="K9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L9" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E10" s="3">
         <v>5800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4500</v>
       </c>
       <c r="G10" s="3">
         <v>4500</v>
       </c>
       <c r="H10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,28 +887,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -900,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -915,22 +937,25 @@
         <v>2400</v>
       </c>
       <c r="G15" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H15" s="3">
         <v>2200</v>
       </c>
       <c r="I15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E17" s="3">
         <v>35900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-7900</v>
       </c>
       <c r="K18" s="3">
         <v>-7900</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-7900</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1080,54 +1119,60 @@
         <v>1100</v>
       </c>
       <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1138,11 +1183,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1150,13 +1195,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E43" s="3">
         <v>15000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1630,16 +1725,16 @@
         <v>2900</v>
       </c>
       <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
         <v>2400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>10</v>
@@ -1650,66 +1745,75 @@
       <c r="K44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E46" s="3">
         <v>41600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1749,54 +1856,60 @@
         <v>5600</v>
       </c>
       <c r="F48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3400</v>
       </c>
       <c r="J48" s="3">
         <v>3400</v>
       </c>
       <c r="K48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E49" s="3">
         <v>42500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>43800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1864,14 +1983,14 @@
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E54" s="3">
         <v>89600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>54100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E57" s="3">
         <v>20900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E59" s="3">
         <v>36000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E60" s="3">
         <v>59200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>65800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E61" s="3">
         <v>26500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E66" s="3">
         <v>87000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>85900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>75800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>67800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-193200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-178000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-169900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-154600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-145800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-135700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-128100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-119600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,22 +2848,25 @@
         <v>2400</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H83" s="3">
         <v>2200</v>
       </c>
       <c r="I83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,28 +3080,31 @@
         <v>-900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
         <v>-1000</v>
       </c>
       <c r="G91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-800</v>
       </c>
       <c r="K91" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-700</v>
       </c>
       <c r="J94" s="3">
         <v>-700</v>
       </c>
       <c r="K94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>LVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F8" s="3">
         <v>32900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>21900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>38800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>21000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>19100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>14600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F9" s="3">
         <v>27700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>16100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>30900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>14600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>10300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F10" s="3">
         <v>5200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,31 +863,37 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,36 +939,42 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
         <v>2400</v>
@@ -940,22 +986,28 @@
         <v>2400</v>
       </c>
       <c r="H15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J15" s="3">
         <v>2200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F17" s="3">
         <v>42900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>35900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>46200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>33600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>26700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>23200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>17800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,136 +1109,162 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-11700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-12100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2100</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
       </c>
       <c r="L22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-15700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,31 +1272,37 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-15200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-15400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-15200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-15400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-15200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-15400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-15200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-15400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F41" s="3">
         <v>12400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>24600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>18600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>17400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,63 +1864,75 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F43" s="3">
         <v>17900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>15000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>12800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>10600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>16200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3900</v>
       </c>
       <c r="L43" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2800</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>10</v>
@@ -1748,72 +1940,90 @@
       <c r="L44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3500</v>
       </c>
       <c r="H45" s="3">
         <v>3100</v>
       </c>
       <c r="I45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F46" s="3">
         <v>35500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>41600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>42800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>35300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>39400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>33500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +2054,90 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="E48" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F48" s="3">
         <v>5600</v>
       </c>
       <c r="G48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F49" s="3">
         <v>41600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>42500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>44000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>45100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>46500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>43800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>31600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>32900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1986,17 +2226,17 @@
       <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>76800</v>
+      </c>
+      <c r="F54" s="3">
         <v>82600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>89600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>92400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>85800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>91200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>81000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>57600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>54100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,168 +2356,200 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F57" s="3">
         <v>27200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>20900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>19100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>18500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>17800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>11200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>32000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>26700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E59" s="3">
         <v>30500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G59" s="3">
         <v>36000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>33400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>27700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>27500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>26900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>60100</v>
+      </c>
+      <c r="F60" s="3">
         <v>57900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>59200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>55000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>51000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>47600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>45300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>65800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>47800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F61" s="3">
         <v>26800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>26500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>25200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>19400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>20900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>15800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>13300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2265,31 +2557,37 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>7200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>7400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>87700</v>
+      </c>
+      <c r="F66" s="3">
         <v>85500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>87000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>85900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>77600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>75800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>67800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>68900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>61200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-212500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-213900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-205000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-193200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-178000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-169900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-154600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-145800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-135700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-128100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-119600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-11300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-15200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-15400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,13 +3229,15 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E83" s="3">
         <v>2400</v>
@@ -2851,22 +3249,28 @@
         <v>2400</v>
       </c>
       <c r="H83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,28 +3511,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-900</v>
       </c>
       <c r="F91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-800</v>
       </c>
       <c r="J91" s="3">
         <v>-700</v>
@@ -3101,10 +3543,16 @@
         <v>-800</v>
       </c>
       <c r="L91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,13 +3621,19 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="E94" s="3">
         <v>-900</v>
@@ -3182,25 +3642,31 @@
         <v>-1100</v>
       </c>
       <c r="G94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3827,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>12700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F8" s="3">
         <v>23200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>23400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>32900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>21900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>38800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>19100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15400</v>
+        <v>11600</v>
       </c>
       <c r="E9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G9" s="3">
         <v>18300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>27700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>30900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>16500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7800</v>
+        <v>15700</v>
       </c>
       <c r="E10" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G10" s="3">
         <v>5100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="F12" s="3">
         <v>900</v>
       </c>
       <c r="G12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>900</v>
+      </c>
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,48 +978,54 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-2500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2300</v>
       </c>
-      <c r="E15" s="3">
-        <v>2400</v>
-      </c>
       <c r="F15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G15" s="3">
         <v>2400</v>
@@ -992,22 +1037,28 @@
         <v>2400</v>
       </c>
       <c r="J15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F17" s="3">
         <v>23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>31100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>42900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>35900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>46200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>33600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>23200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,160 +1176,186 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-11700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-12100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2100</v>
       </c>
       <c r="M22" s="3">
         <v>1000</v>
       </c>
       <c r="N22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-15200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1272,37 +1363,43 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-15200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-15200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-15200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-15200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>11100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>16500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>18600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>20700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,75 +2049,87 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F43" s="3">
         <v>12700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>17900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>15000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>16200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3900</v>
       </c>
       <c r="N43" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2800</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>10</v>
@@ -1946,84 +2137,102 @@
       <c r="N44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3500</v>
       </c>
       <c r="J45" s="3">
         <v>3100</v>
       </c>
       <c r="K45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F46" s="3">
         <v>28500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>31300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>35500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>41600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>42800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>35300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>39400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>33500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>22500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>17700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2269,102 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5600</v>
       </c>
       <c r="H48" s="3">
         <v>5600</v>
       </c>
       <c r="I48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F49" s="3">
         <v>38700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>40100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>41600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>42500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>44000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>45100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>46500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>43800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>31600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>32900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,16 +2445,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
+      <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -2232,17 +2471,17 @@
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F54" s="3">
         <v>72400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>76800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>82600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>89600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>92400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>85800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>91200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>81000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>57600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>54100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2617,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F57" s="3">
         <v>23500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>29600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>27200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>20900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>19100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>18500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>17800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>32000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>26700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>14400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F59" s="3">
         <v>30700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>30500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>30500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>36000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>33400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>27700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>27500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>26900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>18000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44800</v>
+      </c>
+      <c r="F60" s="3">
         <v>54200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>60100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>57900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>59200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>55000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>51000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>47600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>45300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>65800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>47800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F61" s="3">
         <v>27100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>26600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>26800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>26500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>25200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>19400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>20900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>15800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>13300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="3">
-        <v>1000</v>
+        <v>5300</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
       <c r="G62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>7200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F66" s="3">
         <v>82200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>87700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>85500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>87000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>85900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>77600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>75800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>67800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>68900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>61200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-218500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-215900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-212500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-213900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-205000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-193200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-178000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-169900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-154600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-145800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-135700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-128100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-119600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-9800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-11300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-7100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-15200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,19 +3626,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
-        <v>2400</v>
-      </c>
       <c r="F83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G83" s="3">
         <v>2400</v>
@@ -3255,22 +3652,28 @@
         <v>2400</v>
       </c>
       <c r="J83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,25 +3963,25 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G91" s="3">
         <v>-900</v>
       </c>
       <c r="H91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-800</v>
       </c>
       <c r="L91" s="3">
         <v>-700</v>
@@ -3549,10 +3990,16 @@
         <v>-800</v>
       </c>
       <c r="N91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,10 +4095,10 @@
         <v>-800</v>
       </c>
       <c r="E94" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="G94" s="3">
         <v>-900</v>
@@ -3648,25 +4107,31 @@
         <v>-1100</v>
       </c>
       <c r="I94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>12700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
@@ -3978,7 +3978,7 @@
         <v>-900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K91" s="3">
         <v>-1000</v>

--- a/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>LVO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F8" s="3">
         <v>27300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>23500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>23200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>23400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>32900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>38800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>21000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>19100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>14600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F9" s="3">
         <v>11600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>8200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>18300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>27700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>16100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>16500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>14600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F10" s="3">
         <v>15700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>16600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>15000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>5100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1400</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
       </c>
       <c r="I12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,69 +1003,81 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2400</v>
       </c>
       <c r="I15" s="3">
         <v>2400</v>
@@ -1043,22 +1089,28 @@
         <v>2400</v>
       </c>
       <c r="L15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N15" s="3">
         <v>2200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F17" s="3">
         <v>27900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>24500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>31100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>42900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>35900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>46200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>33600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>23200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>16300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
       </c>
       <c r="K22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2100</v>
       </c>
       <c r="O22" s="3">
         <v>1000</v>
       </c>
       <c r="P22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R22" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-11800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>16500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>10400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,87 +2235,99 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F43" s="3">
         <v>13900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>13000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>12700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>17900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>15000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>16200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>3900</v>
       </c>
       <c r="P43" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2800</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>10</v>
@@ -2143,96 +2335,114 @@
       <c r="P44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3500</v>
       </c>
       <c r="L45" s="3">
         <v>3100</v>
       </c>
       <c r="M45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E46" s="3">
         <v>27700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>27700</v>
+      </c>
+      <c r="G46" s="3">
         <v>25400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>28500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>31300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>35500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>41600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>42800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>35300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>39400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>33500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>22500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>17700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2485,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5600</v>
       </c>
       <c r="J48" s="3">
         <v>5600</v>
       </c>
       <c r="K48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F49" s="3">
         <v>34700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>36000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>38700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>40100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>41600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>44000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>45100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>46500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>43800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>31600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>32900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>32100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,22 +2685,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
@@ -2477,17 +2717,17 @@
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F54" s="3">
         <v>66600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>66100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>72400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>76800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>82600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>89600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>92400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>85800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>91200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>81000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>57600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>54100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F57" s="3">
         <v>18300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>19000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>23500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>29600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>27200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>20900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>18500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>17800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>32000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>26700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>14400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F59" s="3">
         <v>25400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>22800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>30700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>30500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>30500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>36000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>33400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>27700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>27500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>26900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>19500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>18000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F60" s="3">
         <v>47400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>44800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>54200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>60100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>57900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>59200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>55000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>51000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>47600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>45300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>65800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>47800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F61" s="3">
         <v>26400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>26200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>27100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>26600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>26800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>26500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>25200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>19400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>20900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>13300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>62100</v>
+      </c>
+      <c r="F66" s="3">
         <v>78900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>76200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>82200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>87700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>85500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>87000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>85900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>77600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>75800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>67800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>68900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>61200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>56900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,16 +3495,22 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-225400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-224300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-218500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-215900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-212500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-213900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-205000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-193200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-178000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-169900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-154600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-145800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-135700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-128100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-119600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-10900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-11300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +4024,27 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2400</v>
       </c>
       <c r="I83" s="3">
         <v>2400</v>
@@ -3658,22 +4056,28 @@
         <v>2400</v>
       </c>
       <c r="L83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>800</v>
+      </c>
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6800</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,40 +4394,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-800</v>
       </c>
       <c r="G91" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="H91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I91" s="3">
         <v>-900</v>
       </c>
       <c r="J91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-800</v>
       </c>
       <c r="N91" s="3">
         <v>-700</v>
@@ -3996,10 +4438,16 @@
         <v>-800</v>
       </c>
       <c r="P91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4540,31 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-800</v>
       </c>
       <c r="G94" s="3">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="I94" s="3">
         <v>-900</v>
@@ -4113,25 +4573,31 @@
         <v>-1100</v>
       </c>
       <c r="K94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>12700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
     </row>
